--- a/Carat/templates/Schedule.xlsx
+++ b/Carat/templates/Schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Всього по кафедрі:</t>
   </si>
@@ -37,10 +37,6 @@
   </si>
   <si>
     <t>бакалаврів</t>
-  </si>
-  <si>
-    <t>за змішаною
-формою начвання</t>
   </si>
   <si>
     <t>з магістрами</t>
@@ -147,6 +143,13 @@
   </si>
   <si>
     <t>Кафедра автоматизації теплоенергетичних процесів</t>
+  </si>
+  <si>
+    <t>за змішаною
+формою навчання</t>
+  </si>
+  <si>
+    <t>аспірантів</t>
   </si>
 </sst>
 </file>
@@ -392,11 +395,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -452,16 +465,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:AL9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8:AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -758,29 +761,29 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AB2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -873,125 +876,125 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="H7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="J7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="L7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="N7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="37" t="s">
+      <c r="O7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39" t="s">
+      <c r="S7" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="40" t="s">
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40" t="s">
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="39" t="s">
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39" t="s">
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="32" t="s">
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AK7" s="32" t="s">
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="AL7" s="30" t="s">
+      <c r="AK7" s="36" t="s">
         <v>9</v>
+      </c>
+      <c r="AL7" s="34" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
       <c r="O8" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="38"/>
+        <v>39</v>
+      </c>
+      <c r="R8" s="42"/>
       <c r="S8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1020,13 +1023,13 @@
         <v>3</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="AE8" s="9" t="s">
         <v>5</v>
@@ -1043,89 +1046,89 @@
       <c r="AI8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="33"/>
-      <c r="AL8" s="31"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="35"/>
     </row>
     <row r="9" spans="1:38" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="44"/>
-      <c r="AI9" s="44"/>
-      <c r="AJ9" s="44"/>
-      <c r="AK9" s="44"/>
-      <c r="AL9" s="45"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="26"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="25"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="29"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
